--- a/Final Project/SMX v1.1.xlsx
+++ b/Final Project/SMX v1.1.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/My Sandbox/OsloMet/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB117F76-CDCE-8C4E-AB0F-B1C35833430E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0962D29-7C0E-5040-9E33-A0F38D1E2DF1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{D6A71AD4-8A8A-714A-A5D4-F2826566A9E6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{D6A71AD4-8A8A-714A-A5D4-F2826566A9E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Index SMX" sheetId="3" r:id="rId2"/>
+    <sheet name="Joining Tables" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$A$1:$B$196</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Index SMX'!$A$1:$B$196</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="222">
   <si>
     <t>8mchannelelapsed</t>
   </si>
@@ -737,7 +738,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -747,6 +748,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,7 +785,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -788,6 +795,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1612,8 +1621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB8EC8E-74C6-484F-A98B-27CABB051FB8}">
   <dimension ref="A1:C196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A187" zoomScale="156" workbookViewId="0">
+      <selection activeCell="B196" sqref="A28:B196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2218,10 +2227,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="10" t="s">
         <v>150</v>
       </c>
       <c r="C55" s="6" t="s">
@@ -2229,10 +2238,10 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="10" t="s">
         <v>151</v>
       </c>
       <c r="C56" s="6" t="s">
@@ -2559,10 +2568,10 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="10" t="s">
         <v>153</v>
       </c>
       <c r="C86" s="6">
@@ -2581,10 +2590,10 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="10" t="s">
         <v>154</v>
       </c>
       <c r="C88" s="6" t="s">
@@ -2768,10 +2777,10 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="10" t="s">
         <v>135</v>
       </c>
       <c r="C105" s="6" t="s">
@@ -2900,10 +2909,10 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="7" t="s">
+      <c r="A117" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="10" t="s">
         <v>155</v>
       </c>
       <c r="C117" s="6" t="s">
@@ -2911,10 +2920,10 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="7" t="s">
+      <c r="A118" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="10" t="s">
         <v>156</v>
       </c>
       <c r="C118" s="6" t="s">
@@ -2955,10 +2964,10 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="7" t="s">
+      <c r="A122" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="10" t="s">
         <v>157</v>
       </c>
       <c r="C122" s="6" t="s">
@@ -3142,10 +3151,10 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="7" t="s">
+      <c r="A139" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="10" t="s">
         <v>135</v>
       </c>
       <c r="C139" s="6" t="s">
@@ -3777,6 +3786,345 @@
       </c>
       <c r="C196" s="6" t="s">
         <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6CE58D-467F-4D4B-B610-490F2A14E6EB}">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
